--- a/biology/Botanique/Houstonie_pourpre/Houstonie_pourpre.xlsx
+++ b/biology/Botanique/Houstonie_pourpre/Houstonie_pourpre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Houstonia purpurea
 Houstonia purpurea (anciennement Hedyotis purpurea) est une espèce de plantes à fleurs de la famille des Rubiaceae. Elle est originaire de l'Est des États-Unis depuis l'Est du Texas et de l'Oklahoma jusqu'à la Floride et la Pennsylvanie, avec des populations dispersées dans le Nebraska, l'Iowa, le Michigan, l'État de New York et la Nouvelle-Angleterre.
